--- a/animals.xlsx
+++ b/animals.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexd\OneDrive\Documents\PROJECTS\Programming\Space Apps\magnetic-reconnection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512A55E3-04E0-47FE-A7D5-580F4AFCF192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A525BAFF-744C-4AB7-90EC-34FB5A98DA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="station.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -71,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,16 +92,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -96,15 +409,205 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -407,7 +910,7 @@
   <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -430,8 +933,8 @@
       <c r="B2">
         <v>52</v>
       </c>
-      <c r="C2">
-        <v>128</v>
+      <c r="C2" s="1">
+        <v>-128</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -441,8 +944,8 @@
       <c r="B3">
         <v>48</v>
       </c>
-      <c r="C3">
-        <v>124</v>
+      <c r="C3" s="1">
+        <v>-124</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -452,8 +955,8 @@
       <c r="B4">
         <v>50</v>
       </c>
-      <c r="C4">
-        <v>128</v>
+      <c r="C4" s="1">
+        <v>-128</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -463,8 +966,8 @@
       <c r="B5">
         <v>49</v>
       </c>
-      <c r="C5">
-        <v>128</v>
+      <c r="C5" s="1">
+        <v>-128</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -474,8 +977,8 @@
       <c r="B6">
         <v>56</v>
       </c>
-      <c r="C6">
-        <v>136</v>
+      <c r="C6" s="1">
+        <v>-136</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -485,8 +988,8 @@
       <c r="B7">
         <v>45</v>
       </c>
-      <c r="C7">
-        <v>80</v>
+      <c r="C7" s="1">
+        <v>-80</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -496,8 +999,8 @@
       <c r="B8">
         <v>44</v>
       </c>
-      <c r="C8">
-        <v>80</v>
+      <c r="C8" s="1">
+        <v>-80</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -507,8 +1010,8 @@
       <c r="B9">
         <v>49</v>
       </c>
-      <c r="C9">
-        <v>55</v>
+      <c r="C9" s="1">
+        <v>-55</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -518,8 +1021,8 @@
       <c r="B10">
         <v>50</v>
       </c>
-      <c r="C10">
-        <v>126</v>
+      <c r="C10" s="1">
+        <v>-126</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -529,8 +1032,8 @@
       <c r="B11">
         <v>55</v>
       </c>
-      <c r="C11">
-        <v>132</v>
+      <c r="C11" s="1">
+        <v>-132</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -540,8 +1043,8 @@
       <c r="B12">
         <v>58</v>
       </c>
-      <c r="C12">
-        <v>139</v>
+      <c r="C12" s="1">
+        <v>-139</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -551,8 +1054,8 @@
       <c r="B13">
         <v>53</v>
       </c>
-      <c r="C13">
-        <v>54</v>
+      <c r="C13" s="1">
+        <v>-54</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -562,8 +1065,8 @@
       <c r="B14">
         <v>45</v>
       </c>
-      <c r="C14">
-        <v>61</v>
+      <c r="C14" s="1">
+        <v>-61</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -573,8 +1076,8 @@
       <c r="B15">
         <v>54</v>
       </c>
-      <c r="C15">
-        <v>57</v>
+      <c r="C15" s="1">
+        <v>-57</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -584,8 +1087,8 @@
       <c r="B16">
         <v>55</v>
       </c>
-      <c r="C16">
-        <v>59</v>
+      <c r="C16" s="1">
+        <v>-59</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -595,8 +1098,8 @@
       <c r="B17">
         <v>57</v>
       </c>
-      <c r="C17">
-        <v>61</v>
+      <c r="C17" s="1">
+        <v>-61</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -606,8 +1109,8 @@
       <c r="B18">
         <v>58</v>
       </c>
-      <c r="C18">
-        <v>63</v>
+      <c r="C18" s="1">
+        <v>-63</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -617,8 +1120,8 @@
       <c r="B19">
         <v>49</v>
       </c>
-      <c r="C19">
-        <v>53</v>
+      <c r="C19" s="1">
+        <v>-53</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -628,8 +1131,8 @@
       <c r="B20">
         <v>48</v>
       </c>
-      <c r="C20">
-        <v>53</v>
+      <c r="C20" s="1">
+        <v>-53</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -639,8 +1142,8 @@
       <c r="B21">
         <v>51</v>
       </c>
-      <c r="C21">
-        <v>55</v>
+      <c r="C21" s="1">
+        <v>-55</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -650,8 +1153,8 @@
       <c r="B22">
         <v>52</v>
       </c>
-      <c r="C22">
-        <v>55</v>
+      <c r="C22" s="1">
+        <v>-55</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -661,8 +1164,8 @@
       <c r="B23">
         <v>47</v>
       </c>
-      <c r="C23">
-        <v>54</v>
+      <c r="C23" s="1">
+        <v>-54</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -672,8 +1175,8 @@
       <c r="B24">
         <v>48</v>
       </c>
-      <c r="C24">
-        <v>69</v>
+      <c r="C24" s="1">
+        <v>-69</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -683,8 +1186,8 @@
       <c r="B25">
         <v>49</v>
       </c>
-      <c r="C25">
-        <v>65</v>
+      <c r="C25" s="1">
+        <v>-65</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -694,8 +1197,8 @@
       <c r="B26">
         <v>49</v>
       </c>
-      <c r="C26">
-        <v>63</v>
+      <c r="C26" s="1">
+        <v>-63</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -705,8 +1208,8 @@
       <c r="B27">
         <v>50</v>
       </c>
-      <c r="C27">
-        <v>59</v>
+      <c r="C27" s="1">
+        <v>-59</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -716,8 +1219,8 @@
       <c r="B28">
         <v>56</v>
       </c>
-      <c r="C28">
-        <v>61</v>
+      <c r="C28" s="1">
+        <v>-61</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -727,8 +1230,8 @@
       <c r="B29">
         <v>55</v>
       </c>
-      <c r="C29">
-        <v>58</v>
+      <c r="C29" s="1">
+        <v>-58</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -738,8 +1241,8 @@
       <c r="B30">
         <v>58</v>
       </c>
-      <c r="C30">
-        <v>68</v>
+      <c r="C30" s="1">
+        <v>-68</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -749,8 +1252,8 @@
       <c r="B31">
         <v>47</v>
       </c>
-      <c r="C31">
-        <v>87</v>
+      <c r="C31" s="1">
+        <v>-87</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -760,8 +1263,8 @@
       <c r="B32">
         <v>47</v>
       </c>
-      <c r="C32">
-        <v>86</v>
+      <c r="C32" s="1">
+        <v>-86</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -771,8 +1274,8 @@
       <c r="B33">
         <v>47</v>
       </c>
-      <c r="C33">
-        <v>82</v>
+      <c r="C33" s="1">
+        <v>-82</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -782,8 +1285,8 @@
       <c r="B34">
         <v>47</v>
       </c>
-      <c r="C34">
-        <v>81</v>
+      <c r="C34" s="1">
+        <v>-81</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -793,8 +1296,8 @@
       <c r="B35">
         <v>47</v>
       </c>
-      <c r="C35">
-        <v>77</v>
+      <c r="C35" s="1">
+        <v>-77</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -804,8 +1307,8 @@
       <c r="B36">
         <v>47</v>
       </c>
-      <c r="C36">
-        <v>68</v>
+      <c r="C36" s="1">
+        <v>-68</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -815,8 +1318,8 @@
       <c r="B37">
         <v>49</v>
       </c>
-      <c r="C37">
-        <v>65</v>
+      <c r="C37" s="1">
+        <v>-65</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -826,8 +1329,8 @@
       <c r="B38">
         <v>51</v>
       </c>
-      <c r="C38">
-        <v>122</v>
+      <c r="C38" s="1">
+        <v>-122</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -837,8 +1340,8 @@
       <c r="B39">
         <v>51</v>
       </c>
-      <c r="C39">
-        <v>121</v>
+      <c r="C39" s="1">
+        <v>-121</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -848,8 +1351,8 @@
       <c r="B40">
         <v>47</v>
       </c>
-      <c r="C40">
-        <v>87</v>
+      <c r="C40" s="1">
+        <v>-87</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -859,8 +1362,8 @@
       <c r="B41">
         <v>47</v>
       </c>
-      <c r="C41">
-        <v>86</v>
+      <c r="C41" s="1">
+        <v>-86</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -870,8 +1373,8 @@
       <c r="B42">
         <v>47</v>
       </c>
-      <c r="C42">
-        <v>82</v>
+      <c r="C42" s="1">
+        <v>-82</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -881,8 +1384,8 @@
       <c r="B43">
         <v>47</v>
       </c>
-      <c r="C43">
-        <v>81</v>
+      <c r="C43" s="1">
+        <v>-81</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -892,8 +1395,8 @@
       <c r="B44">
         <v>47</v>
       </c>
-      <c r="C44">
-        <v>77</v>
+      <c r="C44" s="1">
+        <v>-77</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -903,8 +1406,8 @@
       <c r="B45">
         <v>47</v>
       </c>
-      <c r="C45">
-        <v>68</v>
+      <c r="C45" s="1">
+        <v>-68</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -914,8 +1417,8 @@
       <c r="B46">
         <v>49</v>
       </c>
-      <c r="C46">
-        <v>65</v>
+      <c r="C46" s="1">
+        <v>-65</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -925,8 +1428,8 @@
       <c r="B47">
         <v>48</v>
       </c>
-      <c r="C47">
-        <v>123</v>
+      <c r="C47" s="1">
+        <v>-123</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -936,8 +1439,8 @@
       <c r="B48">
         <v>49</v>
       </c>
-      <c r="C48">
-        <v>124</v>
+      <c r="C48" s="1">
+        <v>-124</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -947,8 +1450,8 @@
       <c r="B49">
         <v>49</v>
       </c>
-      <c r="C49">
-        <v>126</v>
+      <c r="C49" s="1">
+        <v>-126</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -958,8 +1461,8 @@
       <c r="B50">
         <v>50</v>
       </c>
-      <c r="C50">
-        <v>127</v>
+      <c r="C50" s="1">
+        <v>-127</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -969,8 +1472,8 @@
       <c r="B51">
         <v>56</v>
       </c>
-      <c r="C51">
-        <v>133</v>
+      <c r="C51" s="1">
+        <v>-133</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -980,8 +1483,8 @@
       <c r="B52">
         <v>57</v>
       </c>
-      <c r="C52">
-        <v>133</v>
+      <c r="C52" s="1">
+        <v>-133</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -991,8 +1494,8 @@
       <c r="B53">
         <v>52</v>
       </c>
-      <c r="C53">
-        <v>126</v>
+      <c r="C53" s="1">
+        <v>-126</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -1002,8 +1505,8 @@
       <c r="B54">
         <v>58</v>
       </c>
-      <c r="C54">
-        <v>136</v>
+      <c r="C54" s="1">
+        <v>-136</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -1013,8 +1516,8 @@
       <c r="B55">
         <v>49</v>
       </c>
-      <c r="C55">
-        <v>122</v>
+      <c r="C55" s="1">
+        <v>-122</v>
       </c>
     </row>
   </sheetData>
